--- a/healthman-mock/v2/data/classes/地球科学与环境工程学院.xlsx
+++ b/healthman-mock/v2/data/classes/地球科学与环境工程学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -475,12 +474,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000340</t>
         </is>
       </c>
     </row>
@@ -498,12 +499,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000886</t>
         </is>
       </c>
     </row>
@@ -521,12 +524,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2019</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000997</t>
         </is>
       </c>
     </row>
@@ -544,12 +549,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2019</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000674</t>
         </is>
       </c>
     </row>
@@ -567,12 +574,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2019</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000203</t>
         </is>
       </c>
     </row>
@@ -590,12 +599,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2019</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000759</t>
         </is>
       </c>
     </row>
@@ -613,12 +624,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2019</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000688</t>
         </is>
       </c>
     </row>
@@ -636,12 +649,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2019</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000975</t>
         </is>
       </c>
     </row>
@@ -659,12 +674,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2019</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000561</t>
         </is>
       </c>
     </row>
@@ -682,12 +699,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2019</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000176</t>
         </is>
       </c>
     </row>
@@ -705,12 +724,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2019</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000133</t>
         </is>
       </c>
     </row>
@@ -728,12 +749,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2019</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000787</t>
         </is>
       </c>
     </row>
@@ -751,12 +774,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2019</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000685</t>
         </is>
       </c>
     </row>
@@ -774,12 +799,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2019</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000594</t>
         </is>
       </c>
     </row>
@@ -797,12 +824,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2019</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000665</t>
         </is>
       </c>
     </row>
@@ -820,12 +849,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2019</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000464</t>
         </is>
       </c>
     </row>
@@ -843,12 +874,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2019</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000984</t>
         </is>
       </c>
     </row>
@@ -866,12 +899,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2019</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000222</t>
         </is>
       </c>
     </row>
@@ -889,12 +924,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2019</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000292</t>
         </is>
       </c>
     </row>
@@ -912,12 +949,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2020</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000072</t>
         </is>
       </c>
     </row>
@@ -935,12 +974,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2020</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000040</t>
         </is>
       </c>
     </row>
@@ -958,12 +999,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2020</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000172</t>
         </is>
       </c>
     </row>
@@ -981,12 +1024,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2020</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000346</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1049,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2020</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000739</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1074,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2020</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000396</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1099,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>2020</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000477</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1124,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>2020</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000979</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1149,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>2020</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000584</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1174,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>2020</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000415</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1199,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>2020</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000230</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1224,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2020</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000772</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1249,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>2020</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000274</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1274,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2020</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000769</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1299,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2020</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000903</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1324,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>2020</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000677</t>
         </is>
       </c>
     </row>
@@ -1280,12 +1349,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>2020</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000333</t>
         </is>
       </c>
     </row>
@@ -1303,12 +1374,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>2020</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000193</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1399,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>2020</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001001</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1424,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>2020</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000047</t>
         </is>
       </c>
     </row>
@@ -1372,12 +1449,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>2020</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000020</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1474,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>2020</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000452</t>
         </is>
       </c>
     </row>
@@ -1418,12 +1499,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>2020</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000823</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1524,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>2020</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000424</t>
         </is>
       </c>
     </row>
@@ -1464,12 +1549,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2020</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000206</t>
         </is>
       </c>
     </row>
@@ -1487,12 +1574,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2020</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000086</t>
         </is>
       </c>
     </row>
@@ -1510,12 +1599,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2020</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000895</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1624,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2020</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000845</t>
         </is>
       </c>
     </row>
@@ -1556,12 +1649,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2020</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000682</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1674,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>2020</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000302</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1699,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>2020</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000888</t>
         </is>
       </c>
     </row>
@@ -1625,12 +1724,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>2021</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000550</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1749,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>2021</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000050</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1774,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>2021</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000801</t>
         </is>
       </c>
     </row>
@@ -1694,12 +1799,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>2021</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000509</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1824,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>2021</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000373</t>
         </is>
       </c>
     </row>
@@ -1740,12 +1849,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>2021</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000819</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1874,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>2021</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000510</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1899,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>2021</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000150</t>
         </is>
       </c>
     </row>
@@ -1809,12 +1924,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>2021</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000805</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1949,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>2021</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000868</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1974,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>2021</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000650</t>
         </is>
       </c>
     </row>
@@ -1878,12 +1999,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>2021</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000508</t>
         </is>
       </c>
     </row>
@@ -1901,12 +2024,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>2021</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000447</t>
         </is>
       </c>
     </row>
@@ -1924,12 +2049,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>2021</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000123</t>
         </is>
       </c>
     </row>
@@ -1947,12 +2074,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>2021</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000745</t>
         </is>
       </c>
     </row>
@@ -1970,12 +2099,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>2021</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000076</t>
         </is>
       </c>
     </row>
@@ -1993,12 +2124,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>2021</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000845</t>
         </is>
       </c>
     </row>
@@ -2016,12 +2149,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>2021</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000901</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2174,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>2021</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000325</t>
         </is>
       </c>
     </row>
@@ -2062,12 +2199,14 @@
           <t>地球科学与环境工程学院</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>2021</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000885</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/地球科学与环境工程学院.xlsx
+++ b/healthman-mock/v2/data/classes/地球科学与环境工程学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -481,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000340</t>
+          <t>000056</t>
         </is>
       </c>
     </row>
@@ -506,7 +507,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000886</t>
+          <t>000024</t>
         </is>
       </c>
     </row>
@@ -531,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000997</t>
+          <t>000122</t>
         </is>
       </c>
     </row>
@@ -556,7 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000674</t>
+          <t>000011</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000203</t>
+          <t>000151</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000759</t>
+          <t>000050</t>
         </is>
       </c>
     </row>
@@ -631,7 +632,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000688</t>
+          <t>000113</t>
         </is>
       </c>
     </row>
@@ -656,7 +657,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000975</t>
+          <t>000028</t>
         </is>
       </c>
     </row>
@@ -681,7 +682,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000561</t>
+          <t>000218</t>
         </is>
       </c>
     </row>
@@ -706,7 +707,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000176</t>
+          <t>000227</t>
         </is>
       </c>
     </row>
@@ -731,7 +732,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000133</t>
+          <t>000019</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000787</t>
+          <t>000015</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000685</t>
+          <t>000074</t>
         </is>
       </c>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>000121</t>
         </is>
       </c>
     </row>
@@ -831,7 +832,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000665</t>
+          <t>000085</t>
         </is>
       </c>
     </row>
@@ -856,7 +857,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000464</t>
+          <t>000180</t>
         </is>
       </c>
     </row>
@@ -881,7 +882,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000984</t>
+          <t>000008</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000222</t>
+          <t>000125</t>
         </is>
       </c>
     </row>
@@ -931,7 +932,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000292</t>
+          <t>000177</t>
         </is>
       </c>
     </row>
@@ -956,7 +957,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000072</t>
+          <t>000132</t>
         </is>
       </c>
     </row>
@@ -981,7 +982,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000040</t>
+          <t>000027</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>000172</t>
+          <t>000008</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1032,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000346</t>
+          <t>000053</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>000219</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1082,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>000396</t>
+          <t>000025</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>000477</t>
+          <t>000055</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>000175</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1157,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>000584</t>
+          <t>000146</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1182,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>000415</t>
+          <t>000161</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>000230</t>
+          <t>000028</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1232,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>000772</t>
+          <t>000065</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1257,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>000274</t>
+          <t>000046</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1282,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>000769</t>
+          <t>000097</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1307,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>000903</t>
+          <t>000121</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1332,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>000677</t>
+          <t>000144</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>000333</t>
+          <t>000063</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1382,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>000193</t>
+          <t>000017</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1407,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>000110</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1432,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>000047</t>
+          <t>000012</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1457,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>000020</t>
+          <t>000128</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1482,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>000452</t>
+          <t>000089</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>000823</t>
+          <t>000119</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1532,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>000424</t>
+          <t>000190</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1557,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>000206</t>
+          <t>000125</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1582,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>000086</t>
+          <t>000139</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1607,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>000895</t>
+          <t>000159</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1632,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>000845</t>
+          <t>000132</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>000682</t>
+          <t>000059</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1682,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>000302</t>
+          <t>000214</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1707,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>000888</t>
+          <t>000118</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1732,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>000550</t>
+          <t>000010</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1757,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>000050</t>
+          <t>000174</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1782,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>000801</t>
+          <t>000075</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>000509</t>
+          <t>000078</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1832,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>000373</t>
+          <t>000189</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1857,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>000819</t>
+          <t>000109</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1882,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>000510</t>
+          <t>000206</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1907,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>000150</t>
+          <t>000161</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1932,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>000805</t>
+          <t>000016</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>000868</t>
+          <t>000056</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1982,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>000650</t>
+          <t>000108</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2007,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>000082</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2032,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>000447</t>
+          <t>000187</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2057,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>000123</t>
+          <t>000028</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2082,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>000745</t>
+          <t>000124</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>000076</t>
+          <t>000204</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2132,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>000845</t>
+          <t>000072</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2157,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>000901</t>
+          <t>000192</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2182,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>000325</t>
+          <t>000175</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2207,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>000885</t>
+          <t>000028</t>
         </is>
       </c>
     </row>
